--- a/Project_Management/Sprint 6/Burndown chart.xlsx
+++ b/Project_Management/Sprint 6/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\SE2324\Project_Management\Sprint 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F101E0C8-8A62-4554-AE5C-34FFD61474C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274A7DC4-968F-44C9-A540-A87A6CABBFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,10 +838,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -952,28 +952,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>23</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,25 +1042,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>23</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.714285714285715</c:v>
+                  <c:v>25.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.428571428571431</c:v>
+                  <c:v>21.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.142857142857142</c:v>
+                  <c:v>17.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8571428571428577</c:v>
+                  <c:v>12.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.571428571428573</c:v>
+                  <c:v>8.571428571428573</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2857142857142847</c:v>
+                  <c:v>4.2857142857142847</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2232,7 +2232,7 @@
   <dimension ref="B1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,7 +2378,9 @@
       <c r="E6" s="9">
         <v>2</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -2406,7 +2408,9 @@
       <c r="E7" s="13">
         <v>2</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14">
+        <v>2</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -2481,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="14"/>
@@ -2533,9 +2537,11 @@
         <v>20</v>
       </c>
       <c r="D12" s="34">
+        <v>4</v>
+      </c>
+      <c r="E12" s="19">
         <v>1</v>
       </c>
-      <c r="E12" s="19"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -2559,10 +2565,12 @@
         <v>22</v>
       </c>
       <c r="D13" s="34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" s="19"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="14">
+        <v>1.5</v>
+      </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -2719,11 +2727,11 @@
       </c>
       <c r="E20" s="21">
         <f t="shared" ref="E20:K20" si="0">SUM(E6:E19)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" si="0"/>
@@ -2762,35 +2770,35 @@
       <c r="C21" s="47"/>
       <c r="D21" s="24">
         <f>SUM(D6:D20)</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E21" s="25">
         <f t="shared" ref="E21:K21" si="1">D21-SUM(E6:E19)</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F21" s="22">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20.5</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20.5</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20.5</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20.5</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20.5</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20.5</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
@@ -2808,31 +2816,31 @@
       <c r="C22" s="49"/>
       <c r="D22" s="26">
         <f>D21</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E22" s="27">
         <f>$D$22-($D$22/7*1)</f>
-        <v>19.714285714285715</v>
+        <v>25.714285714285715</v>
       </c>
       <c r="F22" s="1">
         <f>$D$22-($D$22/7*2)</f>
-        <v>16.428571428571431</v>
+        <v>21.428571428571431</v>
       </c>
       <c r="G22" s="1">
         <f>$D$22-($D$22/7*3)</f>
-        <v>13.142857142857142</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="H22" s="1">
         <f>$D$22-($D$22/7*4)</f>
-        <v>9.8571428571428577</v>
+        <v>12.857142857142858</v>
       </c>
       <c r="I22" s="1">
         <f>$D$22-($D$22/7*5)</f>
-        <v>6.571428571428573</v>
+        <v>8.571428571428573</v>
       </c>
       <c r="J22" s="1">
         <f>$D$22-($D$22/7*6)</f>
-        <v>3.2857142857142847</v>
+        <v>4.2857142857142847</v>
       </c>
       <c r="K22" s="1">
         <f>$D$22-($D$22/7*7)</f>

--- a/Project_Management/Sprint 6/Burndown chart.xlsx
+++ b/Project_Management/Sprint 6/Burndown chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\SE2324\Project_Management\Sprint 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274A7DC4-968F-44C9-A540-A87A6CABBFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54248C78-90E4-4657-B758-54167326C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -844,7 +844,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -961,19 +961,19 @@
                   <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2232,7 +2232,7 @@
   <dimension ref="B1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,7 +2411,9 @@
       <c r="F7" s="14">
         <v>2</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -2489,7 +2491,9 @@
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -2543,7 +2547,9 @@
         <v>1</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -2571,7 +2577,9 @@
       <c r="F13" s="14">
         <v>1.5</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -2735,7 +2743,7 @@
       </c>
       <c r="G20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H20" s="21">
         <f t="shared" si="0"/>
@@ -2782,23 +2790,23 @@
       </c>
       <c r="G21" s="22">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>17</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>17</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>17</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>17</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>17</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>

--- a/Project_Management/Sprint 6/Burndown chart.xlsx
+++ b/Project_Management/Sprint 6/Burndown chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\SE2324\Project_Management\Sprint 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54248C78-90E4-4657-B758-54167326C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBEE82F-3C3C-4C52-A28D-7CF50F4B98F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -841,13 +841,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -952,28 +952,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,25 +1042,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.714285714285715</c:v>
+                  <c:v>26.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.428571428571431</c:v>
+                  <c:v>22.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.142857142857142</c:v>
+                  <c:v>17.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.857142857142858</c:v>
+                  <c:v>13.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.571428571428573</c:v>
+                  <c:v>8.8571428571428541</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2857142857142847</c:v>
+                  <c:v>4.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2232,7 +2232,7 @@
   <dimension ref="B1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,10 +2378,10 @@
       <c r="E6" s="9">
         <v>2</v>
       </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -2411,10 +2411,10 @@
       <c r="F7" s="14">
         <v>2</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14">
         <v>1</v>
       </c>
-      <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -2435,12 +2435,14 @@
         <v>17</v>
       </c>
       <c r="D8" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -2466,7 +2468,9 @@
       <c r="E9" s="18"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="14">
+        <v>0.5</v>
+      </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -2487,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="14"/>
@@ -2541,16 +2545,18 @@
         <v>20</v>
       </c>
       <c r="D12" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="19">
         <v>1</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="14">
         <v>1</v>
       </c>
-      <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
@@ -2580,7 +2586,9 @@
       <c r="G13" s="14">
         <v>0.5</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
@@ -2739,15 +2747,15 @@
       </c>
       <c r="F20" s="21">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I20" s="21">
         <f t="shared" si="0"/>
@@ -2778,35 +2786,35 @@
       <c r="C21" s="47"/>
       <c r="D21" s="24">
         <f>SUM(D6:D20)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" s="25">
         <f t="shared" ref="E21:K21" si="1">D21-SUM(E6:E19)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F21" s="22">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
@@ -2824,31 +2832,31 @@
       <c r="C22" s="49"/>
       <c r="D22" s="26">
         <f>D21</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" s="27">
         <f>$D$22-($D$22/7*1)</f>
-        <v>25.714285714285715</v>
+        <v>26.571428571428569</v>
       </c>
       <c r="F22" s="1">
         <f>$D$22-($D$22/7*2)</f>
-        <v>21.428571428571431</v>
+        <v>22.142857142857142</v>
       </c>
       <c r="G22" s="1">
         <f>$D$22-($D$22/7*3)</f>
-        <v>17.142857142857142</v>
+        <v>17.714285714285715</v>
       </c>
       <c r="H22" s="1">
         <f>$D$22-($D$22/7*4)</f>
-        <v>12.857142857142858</v>
+        <v>13.285714285714285</v>
       </c>
       <c r="I22" s="1">
         <f>$D$22-($D$22/7*5)</f>
-        <v>8.571428571428573</v>
+        <v>8.8571428571428541</v>
       </c>
       <c r="J22" s="1">
         <f>$D$22-($D$22/7*6)</f>
-        <v>4.2857142857142847</v>
+        <v>4.428571428571427</v>
       </c>
       <c r="K22" s="1">
         <f>$D$22-($D$22/7*7)</f>

--- a/Project_Management/Sprint 6/Burndown chart.xlsx
+++ b/Project_Management/Sprint 6/Burndown chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\SE2324\Project_Management\Sprint 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBEE82F-3C3C-4C52-A28D-7CF50F4B98F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481ADACD-BAAC-4892-9F6B-497EB88CC4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="1260" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -850,7 +850,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -967,13 +967,13 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2232,7 +2232,7 @@
   <dimension ref="B1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,7 +2383,9 @@
         <v>2</v>
       </c>
       <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -2471,7 +2473,9 @@
       <c r="H9" s="14">
         <v>0.5</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="14">
+        <v>1.5</v>
+      </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -2499,7 +2503,9 @@
         <v>1</v>
       </c>
       <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -2759,7 +2765,7 @@
       </c>
       <c r="I20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J20" s="21">
         <f t="shared" si="0"/>
@@ -2806,15 +2812,15 @@
       </c>
       <c r="I21" s="22">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>

--- a/Project_Management/Sprint 6/Burndown chart.xlsx
+++ b/Project_Management/Sprint 6/Burndown chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\SE2324\Project_Management\Sprint 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481ADACD-BAAC-4892-9F6B-497EB88CC4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE93A97-315D-405F-8516-DBD70356F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1260" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -853,10 +853,10 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,10 +970,10 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2232,7 +2232,7 @@
   <dimension ref="B1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,7 +2446,9 @@
         <v>1</v>
       </c>
       <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="J8" s="14">
+        <v>2</v>
+      </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -2476,7 +2478,9 @@
       <c r="I9" s="14">
         <v>1.5</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="14">
+        <v>1</v>
+      </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
@@ -2507,7 +2511,9 @@
         <v>1</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="14">
+        <v>1</v>
+      </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
@@ -2532,8 +2538,12 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="J11" s="14">
+        <v>1</v>
+      </c>
+      <c r="K11" s="14">
+        <v>1</v>
+      </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
@@ -2564,8 +2574,12 @@
         <v>1</v>
       </c>
       <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="J12" s="14">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0.5</v>
+      </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
@@ -2597,7 +2611,9 @@
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="K13" s="14">
+        <v>2</v>
+      </c>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
@@ -2769,11 +2785,11 @@
       </c>
       <c r="J20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
@@ -2816,11 +2832,11 @@
       </c>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
